--- a/new.xlsx
+++ b/new.xlsx
@@ -506,7 +506,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="n">
-        <v>6.887143291986911</v>
+        <v>6.88714329198691</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>96</v>
       </c>
       <c r="B10" t="n">
-        <v>7.673449509169774</v>
+        <v>7.673449509169773</v>
       </c>
     </row>
     <row r="11">
